--- a/formats/excel/Formats RAPSS MED 13.xlsx
+++ b/formats/excel/Formats RAPSS MED 13.xlsx
@@ -1,162 +1,505 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="23715" windowHeight="11055"/>
+    <workbookView windowWidth="24240" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+  <si>
+    <t>libelle</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>longueur</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
   <si>
     <t xml:space="preserve">N° FINESS e-PMSI </t>
   </si>
   <si>
+    <t>NOFINESS</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type de prestation </t>
   </si>
   <si>
+    <t>TYPEPREST</t>
+  </si>
+  <si>
     <t xml:space="preserve">Année période </t>
   </si>
   <si>
+    <t>ANNEE</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° période (mois) </t>
   </si>
   <si>
+    <t>MOIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Numéro séquentiel de séjour d'HAD </t>
   </si>
   <si>
+    <t>NOSEQSEJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Numéro de la séquence dans le séjour </t>
   </si>
   <si>
+    <t>NOSEQ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Numéro de sousséquence </t>
   </si>
   <si>
+    <t>NOSOUSSEQ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nombre de séjours impliqués </t>
   </si>
   <si>
+    <t>NBSEJ</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code UCD </t>
   </si>
   <si>
+    <t>CDUCD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nombre administré éventuellement fractionnaire </t>
   </si>
   <si>
+    <t>NBADM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prix d'achat multiplié par le nombre administré </t>
   </si>
   <si>
+    <t>PRIX</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mois de la date d'administration </t>
   </si>
   <si>
+    <t>MOISADMIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Année de la date d'administration </t>
   </si>
   <si>
+    <t>ANADMIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Délai entre la date d’entrée du séjour et la date de dispensation </t>
   </si>
   <si>
+    <t>DELAI</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filler </t>
   </si>
   <si>
-    <t>libelle</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>longueur</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
-    <t>NOFINESS</t>
-  </si>
-  <si>
-    <t>TYPEPREST</t>
-  </si>
-  <si>
-    <t>ANNEE</t>
-  </si>
-  <si>
-    <t>MOIS</t>
-  </si>
-  <si>
-    <t>NOSEJHAD</t>
-  </si>
-  <si>
-    <t>NOSEQ</t>
-  </si>
-  <si>
-    <t>NOSOUSSEQ</t>
-  </si>
-  <si>
-    <t>NBSEJ</t>
-  </si>
-  <si>
-    <t>CDUCD</t>
-  </si>
-  <si>
-    <t>NBADM</t>
-  </si>
-  <si>
-    <t>PRIX</t>
-  </si>
-  <si>
-    <t>MOISADMIN</t>
-  </si>
-  <si>
-    <t>ANADMIN</t>
-  </si>
-  <si>
-    <t>DELAI</t>
-  </si>
-  <si>
     <t>Filler</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -164,23 +507,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -189,7 +816,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -470,44 +1097,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -519,15 +1147,15 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -539,15 +1167,15 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -559,15 +1187,15 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -579,15 +1207,15 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -599,15 +1227,15 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -619,15 +1247,15 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -639,15 +1267,15 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -659,15 +1287,15 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -679,15 +1307,15 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -699,15 +1327,15 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -719,12 +1347,12 @@
         <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -739,15 +1367,15 @@
         <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -759,15 +1387,15 @@
         <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -779,15 +1407,15 @@
         <v>75</v>
       </c>
       <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
       </c>
       <c r="C16">
         <v>31</v>
@@ -799,34 +1427,43 @@
         <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/formats/excel/Formats RAPSS MED 13.xlsx
+++ b/formats/excel/Formats RAPSS MED 13.xlsx
@@ -87,21 +87,24 @@
     <t>NBSEJ</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code UCD </t>
+  </si>
+  <si>
+    <t>CDUCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre administré éventuellement fractionnaire </t>
+  </si>
+  <si>
+    <t>NBADM</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
-    <t xml:space="preserve">Code UCD </t>
-  </si>
-  <si>
-    <t>CDUCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre administré éventuellement fractionnaire </t>
-  </si>
-  <si>
-    <t>NBADM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prix d'achat multiplié par le nombre administré </t>
   </si>
   <si>
@@ -124,9 +127,6 @@
   </si>
   <si>
     <t>DELAI</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
   <si>
     <t xml:space="preserve">Filler </t>
@@ -141,11 +141,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,18 +154,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,50 +201,80 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -232,66 +285,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,19 +307,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,163 +475,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,21 +498,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,11 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,8 +558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,165 +575,174 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1095,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -1327,15 +1320,15 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1347,15 +1340,15 @@
         <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1372,10 +1365,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1392,10 +1385,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1407,7 +1400,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6">
